--- a/北科/学院模板.xlsx
+++ b/北科/学院模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,67 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
+          <t>(070)数理学院</t>
         </is>
       </c>
     </row>
